--- a/Monthly budget.xlsx
+++ b/Monthly budget.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78a56076858e65b4/Documents/GitHub/Excel-course/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\GitHub\Excel-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21AD9F4-722D-4AF4-BD5B-D16E4DCB4895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -56,9 +66,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mmm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="mmm/yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -91,7 +101,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,11 +381,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,13 +428,9 @@
       <c r="D4">
         <v>1000</v>
       </c>
-      <c r="E4">
-        <f>SUM(B4:D4)</f>
-        <v>3000</v>
-      </c>
-      <c r="F4">
+      <c r="F4" t="e">
         <f>E4/$E$9</f>
-        <v>0.58536585365853655</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -444,9 +450,9 @@
         <f>SUM(B5:D5)</f>
         <v>350</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="e">
         <f>E5/$E$9</f>
-        <v>6.8292682926829273E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -466,9 +472,9 @@
         <f>SUM(B6:D6)</f>
         <v>525</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="e">
         <f>E6/$E$9</f>
-        <v>0.1024390243902439</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -488,9 +494,9 @@
         <f>SUM(B7:D7)</f>
         <v>925</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="e">
         <f>E7/$E$9</f>
-        <v>0.18048780487804877</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -510,9 +516,9 @@
         <f>SUM(B8:D8)</f>
         <v>325</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="e">
         <f>E8/$E$9</f>
-        <v>6.3414634146341464E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -520,24 +526,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <f>B8+B7+B6+B5+B4</f>
+        <f>SUM(B4:B8)</f>
         <v>1675</v>
       </c>
       <c r="C9">
-        <f>C8+C7+C6+C5+C4</f>
+        <f>SUM(C4:C8)</f>
         <v>1700</v>
       </c>
-      <c r="D9">
-        <f>D8+D7+D6+D5+D4</f>
-        <v>1750</v>
-      </c>
-      <c r="E9">
-        <f>E8+E7+E6+E5+E4</f>
-        <v>5125</v>
-      </c>
-      <c r="F9">
+      <c r="F9" t="e">
         <f>F8+F7+F6+F5+F4</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/Monthly budget.xlsx
+++ b/Monthly budget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\GitHub\Excel-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21AD9F4-722D-4AF4-BD5B-D16E4DCB4895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFDD953-CE91-4F7D-B3E7-461A460C326D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Monthly Budget</t>
   </si>
@@ -61,16 +61,33 @@
   </si>
   <si>
     <t>Percent</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>Water</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;$&quot;_ ;_ * \(#,##0.00\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="mmm/yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,16 +95,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -95,16 +145,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -120,7 +193,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -136,7 +209,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -148,7 +221,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -195,6 +268,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -230,6 +320,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,164 +489,335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="B2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="2:8" ht="37.5" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C4" s="1">
         <v>43466</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D4" s="1">
         <v>43497</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E4" s="1">
         <v>43525</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" s="1">
+        <v>43556</v>
+      </c>
+      <c r="G4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C5" s="4">
         <v>1000</v>
       </c>
-      <c r="C4">
+      <c r="D5" s="4">
         <v>1000</v>
       </c>
-      <c r="D4">
+      <c r="E5" s="4">
         <v>1000</v>
       </c>
-      <c r="F4" t="e">
-        <f>E4/$E$9</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F5" s="4">
+        <v>1100</v>
+      </c>
+      <c r="G5">
+        <f>SUM(C5:F5)</f>
+        <v>4100</v>
+      </c>
+      <c r="H5" s="6">
+        <f>G5/$G$11</f>
+        <v>0.57023643949930458</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="C6" s="5">
         <v>125</v>
       </c>
-      <c r="C5">
+      <c r="D6" s="5">
         <v>125</v>
       </c>
-      <c r="D5">
+      <c r="E6" s="5">
         <v>100</v>
       </c>
-      <c r="E5">
-        <f>SUM(B5:D5)</f>
+      <c r="F6" s="5">
+        <v>125</v>
+      </c>
+      <c r="G6">
+        <f>SUM(C6:F6)</f>
+        <v>475</v>
+      </c>
+      <c r="H6" s="6">
+        <f>G6/$G$11</f>
+        <v>6.6063977746870658E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5">
+        <v>50</v>
+      </c>
+      <c r="E7" s="5">
+        <v>50</v>
+      </c>
+      <c r="F7" s="5">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <f>SUM(C7:F7)</f>
+        <v>190</v>
+      </c>
+      <c r="H7" s="6">
+        <f>G7/$G$11</f>
+        <v>2.6425591098748261E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5">
+        <v>150</v>
+      </c>
+      <c r="D8" s="5">
+        <v>200</v>
+      </c>
+      <c r="E8" s="5">
+        <v>175</v>
+      </c>
+      <c r="F8" s="5">
+        <v>150</v>
+      </c>
+      <c r="G8">
+        <f>SUM(C8:F8)</f>
+        <v>675</v>
+      </c>
+      <c r="H8" s="6">
+        <f>G8/$G$11</f>
+        <v>9.3880389429763567E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>300</v>
+      </c>
+      <c r="D9" s="5">
+        <v>275</v>
+      </c>
+      <c r="E9" s="5">
         <v>350</v>
       </c>
-      <c r="F5" t="e">
-        <f>E5/$E$9</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>150</v>
-      </c>
-      <c r="C6">
-        <v>200</v>
-      </c>
-      <c r="D6">
-        <v>175</v>
-      </c>
-      <c r="E6">
-        <f>SUM(B6:D6)</f>
-        <v>525</v>
-      </c>
-      <c r="F6" t="e">
-        <f>E6/$E$9</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
+      <c r="F9" s="5">
+        <v>400</v>
+      </c>
+      <c r="G9">
+        <f>SUM(C9:F9)</f>
+        <v>1325</v>
+      </c>
+      <c r="H9" s="6">
+        <f>G9/$G$11</f>
+        <v>0.18428372739916551</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>100</v>
+      </c>
+      <c r="D10" s="5">
+        <v>100</v>
+      </c>
+      <c r="E10" s="5">
+        <v>125</v>
+      </c>
+      <c r="F10" s="5">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <f>SUM(C10:F10)</f>
+        <v>425</v>
+      </c>
+      <c r="H10" s="6">
+        <f>G10/$G$11</f>
+        <v>5.9109874826147428E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <f>SUM(C5:C10)</f>
+        <v>1725</v>
+      </c>
+      <c r="D11" s="4">
+        <f>SUM(D5:D10)</f>
+        <v>1750</v>
+      </c>
+      <c r="E11" s="4">
+        <f>SUM(E5:E10)</f>
+        <v>1800</v>
+      </c>
+      <c r="F11" s="4">
+        <f>SUM(F5:F10)</f>
+        <v>1915</v>
+      </c>
+      <c r="G11">
+        <f>SUM(G5:G10)</f>
+        <v>7190</v>
+      </c>
+      <c r="H11" s="6">
+        <f>SUM(H5:H10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <f>MIN(C5:C10)</f>
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <f>MIN(D5:D10)</f>
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <f>MIN(E5:E10)</f>
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <f>MIN(G5:G10)</f>
+        <v>190</v>
+      </c>
+      <c r="H13">
+        <f>MIN(H5:H11)</f>
+        <v>2.6425591098748261E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <f>MAX(C5:C10)</f>
+        <v>1000</v>
+      </c>
+      <c r="D14">
+        <f>MAX(D5:D10)</f>
+        <v>1000</v>
+      </c>
+      <c r="E14">
+        <f>MAX(E5:E10)</f>
+        <v>1000</v>
+      </c>
+      <c r="G14">
+        <f>MAX(G5:G10)</f>
+        <v>4100</v>
+      </c>
+      <c r="H14">
+        <f>MAX(H5:H11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <f>AVERAGE(C5:C10)</f>
+        <v>287.5</v>
+      </c>
+      <c r="D15">
+        <f>AVERAGE(D5:D10)</f>
+        <v>291.66666666666669</v>
+      </c>
+      <c r="E15">
+        <f>AVERAGE(E5:E10)</f>
         <v>300</v>
       </c>
-      <c r="C7">
-        <v>275</v>
-      </c>
-      <c r="D7">
-        <v>350</v>
-      </c>
-      <c r="E7">
-        <f>SUM(B7:D7)</f>
-        <v>925</v>
-      </c>
-      <c r="F7" t="e">
-        <f>E7/$E$9</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="G15">
+        <f>AVERAGE(G5:G10)</f>
+        <v>1198.3333333333333</v>
+      </c>
+      <c r="H15">
+        <f>AVERAGE(H5:H11)</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <f>COUNT(C5:C10)</f>
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="D8">
-        <v>125</v>
-      </c>
-      <c r="E8">
-        <f>SUM(B8:D8)</f>
-        <v>325</v>
-      </c>
-      <c r="F8" t="e">
-        <f>E8/$E$9</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D16">
+        <f>COUNT(D5:D10)</f>
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <f>COUNT(E5:E10)</f>
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <f>COUNT(G5:G10)</f>
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <f>COUNT(H5:H11)</f>
         <v>7</v>
-      </c>
-      <c r="B9">
-        <f>SUM(B4:B8)</f>
-        <v>1675</v>
-      </c>
-      <c r="C9">
-        <f>SUM(C4:C8)</f>
-        <v>1700</v>
-      </c>
-      <c r="F9" t="e">
-        <f>F8+F7+F6+F5+F4</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Monthly budget.xlsx
+++ b/Monthly budget.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\GitHub\Excel-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFDD953-CE91-4F7D-B3E7-461A460C326D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B53B0E3-EF9E-409F-8D3A-EF4FD8FC1041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Monthly Budget" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart Monthly Budget" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +76,7 @@
     <t>COUNT</t>
   </si>
   <si>
-    <t>Water</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -87,7 +88,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="mmm/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,8 +117,16 @@
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,8 +145,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -154,32 +169,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="4"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Style 1" xfId="4" xr:uid="{0410552E-9E3F-4ADD-901A-D3FDD8F6AEC0}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -190,6 +226,3879 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>'Monthly Budget'!$B$2</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Monthly Budget</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monthly Budget'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Monthly Budget'!$C$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm/aaaa</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monthly Budget'!$C$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A6F-4B96-A865-AC3A48A0A1BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monthly Budget'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Phone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Monthly Budget'!$C$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm/aaaa</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monthly Budget'!$C$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9A6F-4B96-A865-AC3A48A0A1BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monthly Budget'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Food</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Monthly Budget'!$C$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm/aaaa</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monthly Budget'!$C$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9A6F-4B96-A865-AC3A48A0A1BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monthly Budget'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Candy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Monthly Budget'!$C$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm/aaaa</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monthly Budget'!$C$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9A6F-4B96-A865-AC3A48A0A1BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1328153472"/>
+        <c:axId val="1328153056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1328153472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm/aaaa" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328153056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1328153056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1328153472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1EB67D75-6DF7-40B5-9C95-7F7F89647A6A}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{3FC4F408-67D0-463B-85DA-C5D6C69110E6}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9" loCatId="process" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{380396C9-003D-4289-9D0E-33251BE506DD}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA"/>
+            <a:t>Make Money</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DD9D5A6B-D66C-4FF1-A52B-6097E6442A97}" type="parTrans" cxnId="{71769A31-2E31-4AF1-A759-60550A938C69}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-CA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0BD2D776-ED2F-46E0-A402-FBBFE7EB71B2}" type="sibTrans" cxnId="{71769A31-2E31-4AF1-A759-60550A938C69}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-CA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6E24ADEC-573F-484F-9DEE-4ECB996234BF}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA"/>
+            <a:t>Spend Money</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A05B0B81-8E5C-4EB8-8CFA-D0411BC546FE}" type="parTrans" cxnId="{3EC449EB-6083-4D58-8236-00E003DC2B16}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-CA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0C5EA755-EB6A-4043-9449-6B0E8FAD3942}" type="sibTrans" cxnId="{3EC449EB-6083-4D58-8236-00E003DC2B16}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-CA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{97243D70-704F-4348-807B-5A6A35A763FC}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA"/>
+            <a:t>Track Money</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9AD34CCA-A402-49DD-83BA-973CA2873FDE}" type="parTrans" cxnId="{A049692A-3E05-401F-92AB-843B3C7CEBD5}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-CA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D69AF2F8-0BB6-450D-BEC9-29167B73D1DF}" type="sibTrans" cxnId="{A049692A-3E05-401F-92AB-843B3C7CEBD5}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-CA"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{43398BA5-A64D-4B4D-8A40-5097A90F0663}" type="pres">
+      <dgm:prSet presAssocID="{3FC4F408-67D0-463B-85DA-C5D6C69110E6}" presName="CompostProcess" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{21604E15-F982-4A95-9219-B5B1B773A6C3}" type="pres">
+      <dgm:prSet presAssocID="{3FC4F408-67D0-463B-85DA-C5D6C69110E6}" presName="arrow" presStyleLbl="bgShp" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{615DF102-4296-4227-87FD-A933DB512F88}" type="pres">
+      <dgm:prSet presAssocID="{3FC4F408-67D0-463B-85DA-C5D6C69110E6}" presName="linearProcess" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{15D8B1E7-2F51-47E4-91BA-98CD53CAD1BA}" type="pres">
+      <dgm:prSet presAssocID="{380396C9-003D-4289-9D0E-33251BE506DD}" presName="textNode" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F888FA04-6C01-492B-A314-9903724AA6F4}" type="pres">
+      <dgm:prSet presAssocID="{0BD2D776-ED2F-46E0-A402-FBBFE7EB71B2}" presName="sibTrans" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FA56338C-D1EF-4C13-80AB-CFB8489D6B3C}" type="pres">
+      <dgm:prSet presAssocID="{6E24ADEC-573F-484F-9DEE-4ECB996234BF}" presName="textNode" presStyleLbl="node1" presStyleIdx="1" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{730B7566-4CF5-4E4B-B2A4-CC2A48DD0877}" type="pres">
+      <dgm:prSet presAssocID="{0C5EA755-EB6A-4043-9449-6B0E8FAD3942}" presName="sibTrans" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C55D398A-B3FE-437A-8294-400769A5A6FD}" type="pres">
+      <dgm:prSet presAssocID="{97243D70-704F-4348-807B-5A6A35A763FC}" presName="textNode" presStyleLbl="node1" presStyleIdx="2" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{DE2D670B-55F2-445D-8779-A42BEC91FD87}" type="presOf" srcId="{6E24ADEC-573F-484F-9DEE-4ECB996234BF}" destId="{FA56338C-D1EF-4C13-80AB-CFB8489D6B3C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{A049692A-3E05-401F-92AB-843B3C7CEBD5}" srcId="{3FC4F408-67D0-463B-85DA-C5D6C69110E6}" destId="{97243D70-704F-4348-807B-5A6A35A763FC}" srcOrd="2" destOrd="0" parTransId="{9AD34CCA-A402-49DD-83BA-973CA2873FDE}" sibTransId="{D69AF2F8-0BB6-450D-BEC9-29167B73D1DF}"/>
+    <dgm:cxn modelId="{71769A31-2E31-4AF1-A759-60550A938C69}" srcId="{3FC4F408-67D0-463B-85DA-C5D6C69110E6}" destId="{380396C9-003D-4289-9D0E-33251BE506DD}" srcOrd="0" destOrd="0" parTransId="{DD9D5A6B-D66C-4FF1-A52B-6097E6442A97}" sibTransId="{0BD2D776-ED2F-46E0-A402-FBBFE7EB71B2}"/>
+    <dgm:cxn modelId="{BDE3B338-3B9B-4717-A9D2-2B6DDD8E4F1C}" type="presOf" srcId="{97243D70-704F-4348-807B-5A6A35A763FC}" destId="{C55D398A-B3FE-437A-8294-400769A5A6FD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{D10CEEA2-1FC2-4D24-BF73-BE83D97A60DB}" type="presOf" srcId="{3FC4F408-67D0-463B-85DA-C5D6C69110E6}" destId="{43398BA5-A64D-4B4D-8A40-5097A90F0663}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{3EC449EB-6083-4D58-8236-00E003DC2B16}" srcId="{3FC4F408-67D0-463B-85DA-C5D6C69110E6}" destId="{6E24ADEC-573F-484F-9DEE-4ECB996234BF}" srcOrd="1" destOrd="0" parTransId="{A05B0B81-8E5C-4EB8-8CFA-D0411BC546FE}" sibTransId="{0C5EA755-EB6A-4043-9449-6B0E8FAD3942}"/>
+    <dgm:cxn modelId="{959A06F0-A2A6-4680-8DD9-E92574AF8318}" type="presOf" srcId="{380396C9-003D-4289-9D0E-33251BE506DD}" destId="{15D8B1E7-2F51-47E4-91BA-98CD53CAD1BA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{14956F13-D1F1-4259-8C5E-40574AFAD79F}" type="presParOf" srcId="{43398BA5-A64D-4B4D-8A40-5097A90F0663}" destId="{21604E15-F982-4A95-9219-B5B1B773A6C3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{AD1E2812-7BB9-40A9-9A00-220C5D96EB8E}" type="presParOf" srcId="{43398BA5-A64D-4B4D-8A40-5097A90F0663}" destId="{615DF102-4296-4227-87FD-A933DB512F88}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{89E7761E-BC34-4F40-ABDC-16A85678D587}" type="presParOf" srcId="{615DF102-4296-4227-87FD-A933DB512F88}" destId="{15D8B1E7-2F51-47E4-91BA-98CD53CAD1BA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{3D4D9C97-20C0-48A4-B813-D4EFE6C0FBA9}" type="presParOf" srcId="{615DF102-4296-4227-87FD-A933DB512F88}" destId="{F888FA04-6C01-492B-A314-9903724AA6F4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{A0C7BBD1-BABD-4F42-B393-6710661C64CC}" type="presParOf" srcId="{615DF102-4296-4227-87FD-A933DB512F88}" destId="{FA56338C-D1EF-4C13-80AB-CFB8489D6B3C}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{875B9571-5136-465A-B50F-9FC0432C1117}" type="presParOf" srcId="{615DF102-4296-4227-87FD-A933DB512F88}" destId="{730B7566-4CF5-4E4B-B2A4-CC2A48DD0877}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{ED322322-A25B-498F-89CD-D7CBA4BBF6AB}" type="presParOf" srcId="{615DF102-4296-4227-87FD-A933DB512F88}" destId="{C55D398A-B3FE-437A-8294-400769A5A6FD}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId7" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{21604E15-F982-4A95-9219-B5B1B773A6C3}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="342899" y="0"/>
+          <a:ext cx="3886200" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:tint val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{15D8B1E7-2F51-47E4-91BA-98CD53CAD1BA}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="154930" y="822960"/>
+          <a:ext cx="1371600" cy="1097280"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="102870" tIns="102870" rIns="102870" bIns="102870" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1200150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="2700" kern="1200"/>
+            <a:t>Make Money</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="208495" y="876525"/>
+        <a:ext cx="1264470" cy="990150"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{FA56338C-D1EF-4C13-80AB-CFB8489D6B3C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1600199" y="822960"/>
+          <a:ext cx="1371600" cy="1097280"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="102870" tIns="102870" rIns="102870" bIns="102870" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1200150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="2700" kern="1200"/>
+            <a:t>Spend Money</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1653764" y="876525"/>
+        <a:ext cx="1264470" cy="990150"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C55D398A-B3FE-437A-8294-400769A5A6FD}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3045469" y="822960"/>
+          <a:ext cx="1371600" cy="1097280"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="102870" tIns="102870" rIns="102870" bIns="102870" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1200150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="2700" kern="1200"/>
+            <a:t>Track Money</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3099034" y="876525"/>
+        <a:ext cx="1264470" cy="990150"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="process" pri="5000"/>
+    <dgm:cat type="convert" pri="13000"/>
+  </dgm:catLst>
+  <dgm:sampData useDef="1">
+    <dgm:dataModel>
+      <dgm:ptLst/>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="4"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="CompostProcess">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:alg type="composite">
+      <dgm:param type="horzAlign" val="ctr"/>
+      <dgm:param type="vertAlign" val="mid"/>
+    </dgm:alg>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="w" for="ch" forName="arrow" refType="w" fact="0.85"/>
+      <dgm:constr type="h" for="ch" forName="arrow" refType="h"/>
+      <dgm:constr type="ctrX" for="ch" forName="arrow" refType="w" fact="0.5"/>
+      <dgm:constr type="ctrY" for="ch" forName="arrow" refType="h" fact="0.5"/>
+      <dgm:constr type="w" for="ch" forName="linearProcess" refType="w"/>
+      <dgm:constr type="h" for="ch" forName="linearProcess" refType="h" fact="0.4"/>
+      <dgm:constr type="ctrX" for="ch" forName="linearProcess" refType="w" fact="0.5"/>
+      <dgm:constr type="ctrY" for="ch" forName="linearProcess" refType="h" fact="0.5"/>
+    </dgm:constrLst>
+    <dgm:ruleLst/>
+    <dgm:layoutNode name="arrow" styleLbl="bgShp">
+      <dgm:alg type="sp"/>
+      <dgm:choose name="Name0">
+        <dgm:if name="Name1" func="var" arg="dir" op="equ" val="norm">
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rightArrow" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+        </dgm:if>
+        <dgm:else name="Name2">
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="leftArrow" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+        </dgm:else>
+      </dgm:choose>
+      <dgm:presOf/>
+      <dgm:constrLst/>
+      <dgm:ruleLst/>
+    </dgm:layoutNode>
+    <dgm:layoutNode name="linearProcess">
+      <dgm:choose name="Name3">
+        <dgm:if name="Name4" func="var" arg="dir" op="equ" val="norm">
+          <dgm:alg type="lin"/>
+        </dgm:if>
+        <dgm:else name="Name5">
+          <dgm:alg type="lin">
+            <dgm:param type="linDir" val="fromR"/>
+          </dgm:alg>
+        </dgm:else>
+      </dgm:choose>
+      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+        <dgm:adjLst/>
+      </dgm:shape>
+      <dgm:presOf/>
+      <dgm:constrLst>
+        <dgm:constr type="userA" for="ch" ptType="node" refType="w"/>
+        <dgm:constr type="h" for="ch" ptType="node" refType="h"/>
+        <dgm:constr type="w" for="ch" ptType="node" op="equ"/>
+        <dgm:constr type="w" for="ch" forName="sibTrans" refType="w" fact="0.05"/>
+        <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+      </dgm:constrLst>
+      <dgm:ruleLst/>
+      <dgm:forEach name="Name6" axis="ch" ptType="node">
+        <dgm:layoutNode name="textNode" styleLbl="node1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="desOrSelf" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="userA"/>
+            <dgm:constr type="w" refType="userA" fact="0.3"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="w" val="NaN" fact="1" max="NaN"/>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:forEach name="Name7" axis="followSib" ptType="sibTrans" cnt="1">
+          <dgm:layoutNode name="sibTrans">
+            <dgm:alg type="sp"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+          </dgm:layoutNode>
+        </dgm:forEach>
+      </dgm:forEach>
+    </dgm:layoutNode>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>694764</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>434789</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A58CD40-AE7E-4940-80BA-7D6178B2584A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="918882" y="224119"/>
+          <a:ext cx="537882" cy="401170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>291353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>733986</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28014</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Arrow: Left 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{390A8B67-552D-4CBD-9161-75D9DA591342}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="1148603"/>
+          <a:ext cx="621927" cy="240926"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 54651"/>
+            <a:gd name="adj2" fmla="val 84884"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>296957</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>633133</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>409014</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Smiley Face 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E91C6B2-A474-40DD-BB17-8AB2EF5417B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4644839" y="268941"/>
+          <a:ext cx="336176" cy="330573"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>308162</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>94129</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagram 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{473A5CC6-C287-4BB8-8F2B-15ADC5FD3E57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId3" r:lo="rId4" r:qs="rId5" r:cs="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8670192" cy="6293013"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EC28118-E2E7-4A8D-A9B0-519FE6D41B96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -489,335 +4398,299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H16"/>
+  <dimension ref="B2:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="B4" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="37.5" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:9" ht="37.5" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="2:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <v>43466</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>43497</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="5">
         <v>43525</v>
       </c>
-      <c r="F4" s="1">
-        <v>43556</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>1000</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>1000</v>
       </c>
-      <c r="E5" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1100</v>
-      </c>
-      <c r="G5">
-        <f>SUM(C5:F5)</f>
-        <v>4100</v>
-      </c>
-      <c r="H5" s="6">
-        <f>G5/$G$11</f>
-        <v>0.57023643949930458</v>
+      <c r="E5" s="1">
+        <v>900</v>
+      </c>
+      <c r="F5" s="1">
+        <f>SUM(C5:E5)</f>
+        <v>2900</v>
+      </c>
+      <c r="G5" s="7">
+        <f>F5/$F$10</f>
+        <v>0.58883248730964466</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>125</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>125</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>100</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="2">
+        <f>SUM(C6:E6)</f>
+        <v>350</v>
+      </c>
+      <c r="G6" s="7">
+        <f>F6/$F$10</f>
+        <v>7.1065989847715741E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>150</v>
+      </c>
+      <c r="D7" s="2">
+        <v>200</v>
+      </c>
+      <c r="E7" s="2">
+        <v>175</v>
+      </c>
+      <c r="F7" s="2">
+        <f>SUM(C7:E7)</f>
+        <v>525</v>
+      </c>
+      <c r="G7" s="7">
+        <f>F7/$F$10</f>
+        <v>0.1065989847715736</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>200</v>
+      </c>
+      <c r="D8" s="2">
+        <v>275</v>
+      </c>
+      <c r="E8" s="2">
+        <v>350</v>
+      </c>
+      <c r="F8" s="2">
+        <f>SUM(C8:E8)</f>
+        <v>825</v>
+      </c>
+      <c r="G8" s="7">
+        <f>F8/$F$10</f>
+        <v>0.16751269035532995</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>100</v>
+      </c>
+      <c r="D9" s="2">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2">
         <v>125</v>
       </c>
-      <c r="G6">
-        <f>SUM(C6:F6)</f>
-        <v>475</v>
-      </c>
-      <c r="H6" s="6">
-        <f>G6/$G$11</f>
-        <v>6.6063977746870658E-2</v>
+      <c r="F9" s="2">
+        <f>SUM(C9:E9)</f>
+        <v>325</v>
+      </c>
+      <c r="G9" s="7">
+        <f>F9/$F$10</f>
+        <v>6.5989847715736044E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5">
-        <v>50</v>
-      </c>
-      <c r="D7" s="5">
-        <v>50</v>
-      </c>
-      <c r="E7" s="5">
-        <v>50</v>
-      </c>
-      <c r="F7" s="5">
-        <v>40</v>
-      </c>
-      <c r="G7">
-        <f>SUM(C7:F7)</f>
-        <v>190</v>
-      </c>
-      <c r="H7" s="6">
-        <f>G7/$G$11</f>
-        <v>2.6425591098748261E-2</v>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <f>SUM(C5:C9)</f>
+        <v>1575</v>
+      </c>
+      <c r="D10" s="1">
+        <f>SUM(D5:D9)</f>
+        <v>1700</v>
+      </c>
+      <c r="E10" s="1">
+        <f>SUM(E5:E9)</f>
+        <v>1650</v>
+      </c>
+      <c r="F10">
+        <f>SUM(F5:F9)</f>
+        <v>4925</v>
+      </c>
+      <c r="G10" s="7">
+        <f>SUM(G5:G9)</f>
+        <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5">
-        <v>150</v>
-      </c>
-      <c r="D8" s="5">
-        <v>200</v>
-      </c>
-      <c r="E8" s="5">
-        <v>175</v>
-      </c>
-      <c r="F8" s="5">
-        <v>150</v>
-      </c>
-      <c r="G8">
-        <f>SUM(C8:F8)</f>
-        <v>675</v>
-      </c>
-      <c r="H8" s="6">
-        <f>G8/$G$11</f>
-        <v>9.3880389429763567E-2</v>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <f>MIN(C5:C9)</f>
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <f>MIN(D5:D9)</f>
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f>MIN(E5:E9)</f>
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <f>MIN(F5:F9)</f>
+        <v>325</v>
+      </c>
+      <c r="G12">
+        <f>MIN(G5:G10)</f>
+        <v>6.5989847715736044E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <f>MAX(C5:C9)</f>
+        <v>1000</v>
+      </c>
+      <c r="D13">
+        <f>MAX(D5:D9)</f>
+        <v>1000</v>
+      </c>
+      <c r="E13">
+        <f>MAX(E5:E9)</f>
+        <v>900</v>
+      </c>
+      <c r="F13">
+        <f>MAX(F5:F9)</f>
+        <v>2900</v>
+      </c>
+      <c r="G13">
+        <f>MAX(G5:G10)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <f>AVERAGE(C5:C9)</f>
+        <v>315</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(D5:D9)</f>
+        <v>340</v>
+      </c>
+      <c r="E14">
+        <f>AVERAGE(E5:E9)</f>
+        <v>330</v>
+      </c>
+      <c r="F14">
+        <f>AVERAGE(F5:F9)</f>
+        <v>985</v>
+      </c>
+      <c r="G14">
+        <f>AVERAGE(G5:G10)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <f>COUNT(C5:C9)</f>
         <v>5</v>
       </c>
-      <c r="C9" s="5">
-        <v>300</v>
-      </c>
-      <c r="D9" s="5">
-        <v>275</v>
-      </c>
-      <c r="E9" s="5">
-        <v>350</v>
-      </c>
-      <c r="F9" s="5">
-        <v>400</v>
-      </c>
-      <c r="G9">
-        <f>SUM(C9:F9)</f>
-        <v>1325</v>
-      </c>
-      <c r="H9" s="6">
-        <f>G9/$G$11</f>
-        <v>0.18428372739916551</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="5">
-        <v>100</v>
-      </c>
-      <c r="D10" s="5">
-        <v>100</v>
-      </c>
-      <c r="E10" s="5">
-        <v>125</v>
-      </c>
-      <c r="F10" s="5">
-        <v>100</v>
-      </c>
-      <c r="G10">
-        <f>SUM(C10:F10)</f>
-        <v>425</v>
-      </c>
-      <c r="H10" s="6">
-        <f>G10/$G$11</f>
-        <v>5.9109874826147428E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4">
-        <f>SUM(C5:C10)</f>
-        <v>1725</v>
-      </c>
-      <c r="D11" s="4">
-        <f>SUM(D5:D10)</f>
-        <v>1750</v>
-      </c>
-      <c r="E11" s="4">
-        <f>SUM(E5:E10)</f>
-        <v>1800</v>
-      </c>
-      <c r="F11" s="4">
-        <f>SUM(F5:F10)</f>
-        <v>1915</v>
-      </c>
-      <c r="G11">
-        <f>SUM(G5:G10)</f>
-        <v>7190</v>
-      </c>
-      <c r="H11" s="6">
-        <f>SUM(H5:H10)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <f>MIN(C5:C10)</f>
-        <v>50</v>
-      </c>
-      <c r="D13">
-        <f>MIN(D5:D10)</f>
-        <v>50</v>
-      </c>
-      <c r="E13">
-        <f>MIN(E5:E10)</f>
-        <v>50</v>
-      </c>
-      <c r="G13">
-        <f>MIN(G5:G10)</f>
-        <v>190</v>
-      </c>
-      <c r="H13">
-        <f>MIN(H5:H11)</f>
-        <v>2.6425591098748261E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <f>MAX(C5:C10)</f>
-        <v>1000</v>
-      </c>
-      <c r="D14">
-        <f>MAX(D5:D10)</f>
-        <v>1000</v>
-      </c>
-      <c r="E14">
-        <f>MAX(E5:E10)</f>
-        <v>1000</v>
-      </c>
-      <c r="G14">
-        <f>MAX(G5:G10)</f>
-        <v>4100</v>
-      </c>
-      <c r="H14">
-        <f>MAX(H5:H11)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <f>AVERAGE(C5:C10)</f>
-        <v>287.5</v>
-      </c>
       <c r="D15">
-        <f>AVERAGE(D5:D10)</f>
-        <v>291.66666666666669</v>
+        <f>COUNT(D5:D9)</f>
+        <v>5</v>
       </c>
       <c r="E15">
-        <f>AVERAGE(E5:E10)</f>
-        <v>300</v>
+        <f>COUNT(E5:E9)</f>
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <f>COUNT(F5:F9)</f>
+        <v>5</v>
       </c>
       <c r="G15">
-        <f>AVERAGE(G5:G10)</f>
-        <v>1198.3333333333333</v>
-      </c>
-      <c r="H15">
-        <f>AVERAGE(H5:H11)</f>
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <f>COUNT(C5:C10)</f>
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <f>COUNT(D5:D10)</f>
-        <v>6</v>
-      </c>
-      <c r="E16">
-        <f>COUNT(E5:E10)</f>
-        <v>6</v>
-      </c>
-      <c r="G16">
         <f>COUNT(G5:G10)</f>
         <v>6</v>
       </c>
-      <c r="H16">
-        <f>COUNT(H5:H11)</f>
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:E9">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>250</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Monthly budget.xlsx
+++ b/Monthly budget.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\GitHub\Excel-course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riope\OneDrive\Documents\GitHub\Excel-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B53B0E3-EF9E-409F-8D3A-EF4FD8FC1041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Budget" sheetId="1" r:id="rId1"/>
     <sheet name="Chart Monthly Budget" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -82,7 +81,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;$&quot;_ ;_ * \(#,##0.00\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
@@ -195,17 +194,17 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="4"/>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
+    <cellStyle name="Monétaire" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Style 1" xfId="4" xr:uid="{0410552E-9E3F-4ADD-901A-D3FDD8F6AEC0}"/>
+    <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
+    <cellStyle name="Style 1" xfId="4"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -231,7 +230,351 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monthly Budget'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>févr-2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6310-42D4-8AC5-16C5C5201E56}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Monthly Budget'!$B$5:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Rent</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Credit Cards</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Candy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monthly Budget'!$D$5:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6310-42D4-8AC5-16C5C5201E56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="0" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -254,6 +597,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -804,6 +1148,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -834,6 +1179,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -841,7 +1187,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -922,7 +1267,566 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1419,13 +2323,14 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1EB67D75-6DF7-40B5-9C95-7F7F89647A6A}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -2315,6 +3220,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F888FA04-6C01-492B-A314-9903724AA6F4}" type="pres">
       <dgm:prSet presAssocID="{0BD2D776-ED2F-46E0-A402-FBBFE7EB71B2}" presName="sibTrans" presStyleCnt="0"/>
@@ -2327,6 +3239,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{730B7566-4CF5-4E4B-B2A4-CC2A48DD0877}" type="pres">
       <dgm:prSet presAssocID="{0C5EA755-EB6A-4043-9449-6B0E8FAD3942}" presName="sibTrans" presStyleCnt="0"/>
@@ -2339,16 +3258,23 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{D10CEEA2-1FC2-4D24-BF73-BE83D97A60DB}" type="presOf" srcId="{3FC4F408-67D0-463B-85DA-C5D6C69110E6}" destId="{43398BA5-A64D-4B4D-8A40-5097A90F0663}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{BDE3B338-3B9B-4717-A9D2-2B6DDD8E4F1C}" type="presOf" srcId="{97243D70-704F-4348-807B-5A6A35A763FC}" destId="{C55D398A-B3FE-437A-8294-400769A5A6FD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{3EC449EB-6083-4D58-8236-00E003DC2B16}" srcId="{3FC4F408-67D0-463B-85DA-C5D6C69110E6}" destId="{6E24ADEC-573F-484F-9DEE-4ECB996234BF}" srcOrd="1" destOrd="0" parTransId="{A05B0B81-8E5C-4EB8-8CFA-D0411BC546FE}" sibTransId="{0C5EA755-EB6A-4043-9449-6B0E8FAD3942}"/>
     <dgm:cxn modelId="{DE2D670B-55F2-445D-8779-A42BEC91FD87}" type="presOf" srcId="{6E24ADEC-573F-484F-9DEE-4ECB996234BF}" destId="{FA56338C-D1EF-4C13-80AB-CFB8489D6B3C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
     <dgm:cxn modelId="{A049692A-3E05-401F-92AB-843B3C7CEBD5}" srcId="{3FC4F408-67D0-463B-85DA-C5D6C69110E6}" destId="{97243D70-704F-4348-807B-5A6A35A763FC}" srcOrd="2" destOrd="0" parTransId="{9AD34CCA-A402-49DD-83BA-973CA2873FDE}" sibTransId="{D69AF2F8-0BB6-450D-BEC9-29167B73D1DF}"/>
+    <dgm:cxn modelId="{959A06F0-A2A6-4680-8DD9-E92574AF8318}" type="presOf" srcId="{380396C9-003D-4289-9D0E-33251BE506DD}" destId="{15D8B1E7-2F51-47E4-91BA-98CD53CAD1BA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
     <dgm:cxn modelId="{71769A31-2E31-4AF1-A759-60550A938C69}" srcId="{3FC4F408-67D0-463B-85DA-C5D6C69110E6}" destId="{380396C9-003D-4289-9D0E-33251BE506DD}" srcOrd="0" destOrd="0" parTransId="{DD9D5A6B-D66C-4FF1-A52B-6097E6442A97}" sibTransId="{0BD2D776-ED2F-46E0-A402-FBBFE7EB71B2}"/>
-    <dgm:cxn modelId="{BDE3B338-3B9B-4717-A9D2-2B6DDD8E4F1C}" type="presOf" srcId="{97243D70-704F-4348-807B-5A6A35A763FC}" destId="{C55D398A-B3FE-437A-8294-400769A5A6FD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
-    <dgm:cxn modelId="{D10CEEA2-1FC2-4D24-BF73-BE83D97A60DB}" type="presOf" srcId="{3FC4F408-67D0-463B-85DA-C5D6C69110E6}" destId="{43398BA5-A64D-4B4D-8A40-5097A90F0663}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
-    <dgm:cxn modelId="{3EC449EB-6083-4D58-8236-00E003DC2B16}" srcId="{3FC4F408-67D0-463B-85DA-C5D6C69110E6}" destId="{6E24ADEC-573F-484F-9DEE-4ECB996234BF}" srcOrd="1" destOrd="0" parTransId="{A05B0B81-8E5C-4EB8-8CFA-D0411BC546FE}" sibTransId="{0C5EA755-EB6A-4043-9449-6B0E8FAD3942}"/>
-    <dgm:cxn modelId="{959A06F0-A2A6-4680-8DD9-E92574AF8318}" type="presOf" srcId="{380396C9-003D-4289-9D0E-33251BE506DD}" destId="{15D8B1E7-2F51-47E4-91BA-98CD53CAD1BA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
     <dgm:cxn modelId="{14956F13-D1F1-4259-8C5E-40574AFAD79F}" type="presParOf" srcId="{43398BA5-A64D-4B4D-8A40-5097A90F0663}" destId="{21604E15-F982-4A95-9219-B5B1B773A6C3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
     <dgm:cxn modelId="{AD1E2812-7BB9-40A9-9A00-220C5D96EB8E}" type="presParOf" srcId="{43398BA5-A64D-4B4D-8A40-5097A90F0663}" destId="{615DF102-4296-4227-87FD-A933DB512F88}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
     <dgm:cxn modelId="{89E7761E-BC34-4F40-ABDC-16A85678D587}" type="presParOf" srcId="{615DF102-4296-4227-87FD-A933DB512F88}" destId="{15D8B1E7-2F51-47E4-91BA-98CD53CAD1BA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
@@ -2382,8 +3308,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="342899" y="0"/>
-          <a:ext cx="3886200" cy="2743200"/>
+          <a:off x="367752" y="0"/>
+          <a:ext cx="4167867" cy="2743200"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -2422,8 +3348,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="154930" y="822960"/>
-          <a:ext cx="1371600" cy="1097280"/>
+          <a:off x="166159" y="822960"/>
+          <a:ext cx="1471011" cy="1097280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2470,7 +3396,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1200150">
+          <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2480,7 +3406,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="fr-CA" sz="2700" kern="1200"/>
@@ -2489,8 +3414,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="208495" y="876525"/>
-        <a:ext cx="1264470" cy="990150"/>
+        <a:off x="219724" y="876525"/>
+        <a:ext cx="1363881" cy="990150"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FA56338C-D1EF-4C13-80AB-CFB8489D6B3C}">
@@ -2500,8 +3425,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1600199" y="822960"/>
-          <a:ext cx="1371600" cy="1097280"/>
+          <a:off x="1716180" y="822960"/>
+          <a:ext cx="1471011" cy="1097280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2548,7 +3473,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1200150">
+          <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2558,7 +3483,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="fr-CA" sz="2700" kern="1200"/>
@@ -2567,8 +3491,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1653764" y="876525"/>
-        <a:ext cx="1264470" cy="990150"/>
+        <a:off x="1769745" y="876525"/>
+        <a:ext cx="1363881" cy="990150"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C55D398A-B3FE-437A-8294-400769A5A6FD}">
@@ -2578,8 +3502,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3045469" y="822960"/>
-          <a:ext cx="1371600" cy="1097280"/>
+          <a:off x="3266201" y="822960"/>
+          <a:ext cx="1471011" cy="1097280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2626,7 +3550,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1200150">
+          <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2636,7 +3560,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="fr-CA" sz="2700" kern="1200"/>
@@ -2645,8 +3568,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3099034" y="876525"/>
-        <a:ext cx="1264470" cy="990150"/>
+        <a:off x="3319766" y="876525"/>
+        <a:ext cx="1363881" cy="990150"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -3876,7 +4799,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" xmlns="" r:id="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4032,15 +4955,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>308162</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>17929</xdr:rowOff>
+      <xdr:colOff>580305</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>31536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>94129</xdr:rowOff>
+      <xdr:colOff>748393</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>107736</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4065,6 +4988,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>591511</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>188419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4072,7 +5025,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670192" cy="6293013"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4397,30 +5350,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="37.5" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="4" spans="2:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -4459,7 +5412,7 @@
         <f>SUM(C5:E5)</f>
         <v>2900</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f>F5/$F$10</f>
         <v>0.58883248730964466</v>
       </c>
@@ -4481,7 +5434,7 @@
         <f>SUM(C6:E6)</f>
         <v>350</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <f>F6/$F$10</f>
         <v>7.1065989847715741E-2</v>
       </c>
@@ -4503,7 +5456,7 @@
         <f>SUM(C7:E7)</f>
         <v>525</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <f>F7/$F$10</f>
         <v>0.1065989847715736</v>
       </c>
@@ -4528,7 +5481,7 @@
         <f>SUM(C8:E8)</f>
         <v>825</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <f>F8/$F$10</f>
         <v>0.16751269035532995</v>
       </c>
@@ -4550,7 +5503,7 @@
         <f>SUM(C9:E9)</f>
         <v>325</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <f>F9/$F$10</f>
         <v>6.5989847715736044E-2</v>
       </c>
@@ -4575,7 +5528,7 @@
         <f>SUM(F5:F9)</f>
         <v>4925</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <f>SUM(G5:G9)</f>
         <v>0.99999999999999989</v>
       </c>
@@ -4690,7 +5643,11 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;R&amp;P
+</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>